--- a/columns_group.xlsx
+++ b/columns_group.xlsx
@@ -19,7 +19,7 @@
     <sheet name="merge_keys" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">group!$A$1:$B$192</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">group!$A$1:$B$360</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="370">
   <si>
     <t>OD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -715,6 +715,460 @@
   <si>
     <t>股票屬性資料</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bp11</t>
+  </si>
+  <si>
+    <t>bp12</t>
+  </si>
+  <si>
+    <t>bp21</t>
+  </si>
+  <si>
+    <t>bp22</t>
+  </si>
+  <si>
+    <t>bp31</t>
+  </si>
+  <si>
+    <t>bp41</t>
+  </si>
+  <si>
+    <t>bp51</t>
+  </si>
+  <si>
+    <t>bp52</t>
+  </si>
+  <si>
+    <t>bp53</t>
+  </si>
+  <si>
+    <t>bp54</t>
+  </si>
+  <si>
+    <t>bp61</t>
+  </si>
+  <si>
+    <t>bp62</t>
+  </si>
+  <si>
+    <t>bp63</t>
+  </si>
+  <si>
+    <t>bp64</t>
+  </si>
+  <si>
+    <t>bp71</t>
+  </si>
+  <si>
+    <t>bp72</t>
+  </si>
+  <si>
+    <t>bp96</t>
+  </si>
+  <si>
+    <t>bp97</t>
+  </si>
+  <si>
+    <t>bp98</t>
+  </si>
+  <si>
+    <t>bp99</t>
+  </si>
+  <si>
+    <t>bv11</t>
+  </si>
+  <si>
+    <t>bv12</t>
+  </si>
+  <si>
+    <t>bv13</t>
+  </si>
+  <si>
+    <t>bv14</t>
+  </si>
+  <si>
+    <t>bv21</t>
+  </si>
+  <si>
+    <t>bv31</t>
+  </si>
+  <si>
+    <t>bv41</t>
+  </si>
+  <si>
+    <t>bv42</t>
+  </si>
+  <si>
+    <t>bf11</t>
+  </si>
+  <si>
+    <t>bf12</t>
+  </si>
+  <si>
+    <t>bf21</t>
+  </si>
+  <si>
+    <t>bf22</t>
+  </si>
+  <si>
+    <t>bf31</t>
+  </si>
+  <si>
+    <t>bf41</t>
+  </si>
+  <si>
+    <t>bf42</t>
+  </si>
+  <si>
+    <t>bf43</t>
+  </si>
+  <si>
+    <t>bf44</t>
+  </si>
+  <si>
+    <t>bf45</t>
+  </si>
+  <si>
+    <t>bf99</t>
+  </si>
+  <si>
+    <t>bsca</t>
+  </si>
+  <si>
+    <t>bsnca</t>
+  </si>
+  <si>
+    <t>bsta</t>
+  </si>
+  <si>
+    <t>bscl</t>
+  </si>
+  <si>
+    <t>bsncl</t>
+  </si>
+  <si>
+    <t>bstl</t>
+  </si>
+  <si>
+    <t>bsse</t>
+  </si>
+  <si>
+    <t>bslse</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>ppe</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>ip11</t>
+  </si>
+  <si>
+    <t>ip21</t>
+  </si>
+  <si>
+    <t>ip22</t>
+  </si>
+  <si>
+    <t>ip31</t>
+  </si>
+  <si>
+    <t>ip41</t>
+  </si>
+  <si>
+    <t>ip42</t>
+  </si>
+  <si>
+    <t>ip43</t>
+  </si>
+  <si>
+    <t>ip44</t>
+  </si>
+  <si>
+    <t>ip45</t>
+  </si>
+  <si>
+    <t>ip51</t>
+  </si>
+  <si>
+    <t>ip99</t>
+  </si>
+  <si>
+    <t>ip98</t>
+  </si>
+  <si>
+    <t>ip97</t>
+  </si>
+  <si>
+    <t>iv11</t>
+  </si>
+  <si>
+    <t>iv21</t>
+  </si>
+  <si>
+    <t>iv22</t>
+  </si>
+  <si>
+    <t>iv23</t>
+  </si>
+  <si>
+    <t>iv24</t>
+  </si>
+  <si>
+    <t>iv31</t>
+  </si>
+  <si>
+    <t>iv32</t>
+  </si>
+  <si>
+    <t>iv33</t>
+  </si>
+  <si>
+    <t>iv41</t>
+  </si>
+  <si>
+    <t>if11</t>
+  </si>
+  <si>
+    <t>if21</t>
+  </si>
+  <si>
+    <t>if31</t>
+  </si>
+  <si>
+    <t>ispsd</t>
+  </si>
+  <si>
+    <t>opi</t>
+  </si>
+  <si>
+    <t>nri</t>
+  </si>
+  <si>
+    <t>ri</t>
+  </si>
+  <si>
+    <t>nopi</t>
+  </si>
+  <si>
+    <t>ebit</t>
+  </si>
+  <si>
+    <t>cp31</t>
+  </si>
+  <si>
+    <t>cp32</t>
+  </si>
+  <si>
+    <t>cisni</t>
+  </si>
+  <si>
+    <t>cip21</t>
+  </si>
+  <si>
+    <t>cip22</t>
+  </si>
+  <si>
+    <t>cip31</t>
+  </si>
+  <si>
+    <t>cip41</t>
+  </si>
+  <si>
+    <t>cip42</t>
+  </si>
+  <si>
+    <t>cbp21</t>
+  </si>
+  <si>
+    <t>cbp31</t>
+  </si>
+  <si>
+    <t>cbp41</t>
+  </si>
+  <si>
+    <t>cbp61</t>
+  </si>
+  <si>
+    <t>cbp62</t>
+  </si>
+  <si>
+    <t>cbp63</t>
+  </si>
+  <si>
+    <t>cbp64</t>
+  </si>
+  <si>
+    <t>cp51</t>
+  </si>
+  <si>
+    <t>cv11</t>
+  </si>
+  <si>
+    <t>cv12</t>
+  </si>
+  <si>
+    <t>cv21</t>
+  </si>
+  <si>
+    <t>cv22</t>
+  </si>
+  <si>
+    <t>cv31</t>
+  </si>
+  <si>
+    <t>cv32</t>
+  </si>
+  <si>
+    <t>cv41</t>
+  </si>
+  <si>
+    <t>cf11</t>
+  </si>
+  <si>
+    <t>cf12</t>
+  </si>
+  <si>
+    <t>cf21</t>
+  </si>
+  <si>
+    <t>cf31</t>
+  </si>
+  <si>
+    <t>cf41</t>
+  </si>
+  <si>
+    <t>ct11</t>
+  </si>
+  <si>
+    <t>ct21</t>
+  </si>
+  <si>
+    <t>cschg</t>
+  </si>
+  <si>
+    <t>csbch</t>
+  </si>
+  <si>
+    <t>cscfo</t>
+  </si>
+  <si>
+    <t>cscfi</t>
+  </si>
+  <si>
+    <t>cscff</t>
+  </si>
+  <si>
+    <t>csech</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>wavg</t>
+  </si>
+  <si>
+    <t>taxrate</t>
+  </si>
+  <si>
+    <t>r104</t>
+  </si>
+  <si>
+    <t>r115</t>
+  </si>
+  <si>
+    <t>r201</t>
+  </si>
+  <si>
+    <t>r112</t>
+  </si>
+  <si>
+    <t>r408</t>
+  </si>
+  <si>
+    <t>r409</t>
+  </si>
+  <si>
+    <t>r410</t>
+  </si>
+  <si>
+    <t>r502</t>
+  </si>
+  <si>
+    <t>r501</t>
+  </si>
+  <si>
+    <t>r205</t>
+  </si>
+  <si>
+    <t>r505</t>
+  </si>
+  <si>
+    <t>r517</t>
+  </si>
+  <si>
+    <t>r512</t>
+  </si>
+  <si>
+    <t>r509</t>
+  </si>
+  <si>
+    <t>r608</t>
+  </si>
+  <si>
+    <t>r616</t>
+  </si>
+  <si>
+    <t>r610</t>
+  </si>
+  <si>
+    <t>r607</t>
+  </si>
+  <si>
+    <t>r613</t>
+  </si>
+  <si>
+    <t>r612</t>
+  </si>
+  <si>
+    <t>r609</t>
+  </si>
+  <si>
+    <t>r614</t>
+  </si>
+  <si>
+    <t>r611</t>
+  </si>
+  <si>
+    <t>r615</t>
+  </si>
+  <si>
+    <t>r307</t>
+  </si>
+  <si>
+    <t>r304</t>
+  </si>
+  <si>
+    <t>r305</t>
+  </si>
+  <si>
+    <t>r316</t>
+  </si>
+  <si>
+    <t>r834</t>
   </si>
 </sst>
 </file>
@@ -1044,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2592,8 +3046,1351 @@
         <v>173</v>
       </c>
     </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>220</v>
+      </c>
+      <c r="B193" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>221</v>
+      </c>
+      <c r="B194" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>222</v>
+      </c>
+      <c r="B195" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>223</v>
+      </c>
+      <c r="B196" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>224</v>
+      </c>
+      <c r="B197" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>225</v>
+      </c>
+      <c r="B198" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>226</v>
+      </c>
+      <c r="B199" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>227</v>
+      </c>
+      <c r="B200" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>228</v>
+      </c>
+      <c r="B201" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>229</v>
+      </c>
+      <c r="B202" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>230</v>
+      </c>
+      <c r="B203" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>231</v>
+      </c>
+      <c r="B204" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>232</v>
+      </c>
+      <c r="B205" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>233</v>
+      </c>
+      <c r="B206" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>234</v>
+      </c>
+      <c r="B207" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>235</v>
+      </c>
+      <c r="B208" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>236</v>
+      </c>
+      <c r="B209" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>237</v>
+      </c>
+      <c r="B210" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>238</v>
+      </c>
+      <c r="B211" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>239</v>
+      </c>
+      <c r="B212" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>240</v>
+      </c>
+      <c r="B213" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>241</v>
+      </c>
+      <c r="B214" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>242</v>
+      </c>
+      <c r="B215" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>243</v>
+      </c>
+      <c r="B216" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>244</v>
+      </c>
+      <c r="B217" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>245</v>
+      </c>
+      <c r="B218" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>246</v>
+      </c>
+      <c r="B219" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>247</v>
+      </c>
+      <c r="B220" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>248</v>
+      </c>
+      <c r="B221" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>249</v>
+      </c>
+      <c r="B222" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>250</v>
+      </c>
+      <c r="B223" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>251</v>
+      </c>
+      <c r="B224" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>252</v>
+      </c>
+      <c r="B225" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>253</v>
+      </c>
+      <c r="B226" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>254</v>
+      </c>
+      <c r="B227" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>255</v>
+      </c>
+      <c r="B228" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>256</v>
+      </c>
+      <c r="B229" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>257</v>
+      </c>
+      <c r="B230" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>258</v>
+      </c>
+      <c r="B231" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>259</v>
+      </c>
+      <c r="B232" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>260</v>
+      </c>
+      <c r="B233" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>261</v>
+      </c>
+      <c r="B234" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>262</v>
+      </c>
+      <c r="B235" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>263</v>
+      </c>
+      <c r="B236" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>264</v>
+      </c>
+      <c r="B237" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>265</v>
+      </c>
+      <c r="B238" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>266</v>
+      </c>
+      <c r="B239" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>267</v>
+      </c>
+      <c r="B240" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>268</v>
+      </c>
+      <c r="B241" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>269</v>
+      </c>
+      <c r="B242" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>270</v>
+      </c>
+      <c r="B243" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>271</v>
+      </c>
+      <c r="B244" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>16</v>
+      </c>
+      <c r="B245" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>272</v>
+      </c>
+      <c r="B246" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>273</v>
+      </c>
+      <c r="B247" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>274</v>
+      </c>
+      <c r="B248" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>275</v>
+      </c>
+      <c r="B249" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>276</v>
+      </c>
+      <c r="B250" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>277</v>
+      </c>
+      <c r="B251" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>278</v>
+      </c>
+      <c r="B252" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>279</v>
+      </c>
+      <c r="B253" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>280</v>
+      </c>
+      <c r="B254" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>281</v>
+      </c>
+      <c r="B255" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>282</v>
+      </c>
+      <c r="B256" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>283</v>
+      </c>
+      <c r="B257" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>284</v>
+      </c>
+      <c r="B258" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>285</v>
+      </c>
+      <c r="B259" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>286</v>
+      </c>
+      <c r="B260" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>287</v>
+      </c>
+      <c r="B261" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>288</v>
+      </c>
+      <c r="B262" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>289</v>
+      </c>
+      <c r="B263" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>290</v>
+      </c>
+      <c r="B264" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>291</v>
+      </c>
+      <c r="B265" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>292</v>
+      </c>
+      <c r="B266" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>293</v>
+      </c>
+      <c r="B267" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>294</v>
+      </c>
+      <c r="B268" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>295</v>
+      </c>
+      <c r="B269" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>18</v>
+      </c>
+      <c r="B270" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>19</v>
+      </c>
+      <c r="B271" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>20</v>
+      </c>
+      <c r="B272" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>21</v>
+      </c>
+      <c r="B273" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>23</v>
+      </c>
+      <c r="B274" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>296</v>
+      </c>
+      <c r="B275" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>17</v>
+      </c>
+      <c r="B276" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>297</v>
+      </c>
+      <c r="B277" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>298</v>
+      </c>
+      <c r="B278" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>299</v>
+      </c>
+      <c r="B279" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>300</v>
+      </c>
+      <c r="B280" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>301</v>
+      </c>
+      <c r="B281" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>302</v>
+      </c>
+      <c r="B282" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>303</v>
+      </c>
+      <c r="B283" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>304</v>
+      </c>
+      <c r="B284" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>305</v>
+      </c>
+      <c r="B285" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>306</v>
+      </c>
+      <c r="B286" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>307</v>
+      </c>
+      <c r="B287" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>308</v>
+      </c>
+      <c r="B288" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>309</v>
+      </c>
+      <c r="B289" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>310</v>
+      </c>
+      <c r="B290" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>311</v>
+      </c>
+      <c r="B291" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>312</v>
+      </c>
+      <c r="B292" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>313</v>
+      </c>
+      <c r="B293" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>314</v>
+      </c>
+      <c r="B294" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>315</v>
+      </c>
+      <c r="B295" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>316</v>
+      </c>
+      <c r="B296" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>317</v>
+      </c>
+      <c r="B297" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>318</v>
+      </c>
+      <c r="B298" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>319</v>
+      </c>
+      <c r="B299" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>320</v>
+      </c>
+      <c r="B300" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>321</v>
+      </c>
+      <c r="B301" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>322</v>
+      </c>
+      <c r="B302" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>323</v>
+      </c>
+      <c r="B303" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>324</v>
+      </c>
+      <c r="B304" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>325</v>
+      </c>
+      <c r="B305" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>326</v>
+      </c>
+      <c r="B306" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>327</v>
+      </c>
+      <c r="B307" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>328</v>
+      </c>
+      <c r="B308" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>329</v>
+      </c>
+      <c r="B309" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>330</v>
+      </c>
+      <c r="B310" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>331</v>
+      </c>
+      <c r="B311" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>332</v>
+      </c>
+      <c r="B312" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>333</v>
+      </c>
+      <c r="B313" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>334</v>
+      </c>
+      <c r="B314" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>335</v>
+      </c>
+      <c r="B315" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>336</v>
+      </c>
+      <c r="B316" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>337</v>
+      </c>
+      <c r="B317" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>338</v>
+      </c>
+      <c r="B318" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>50</v>
+      </c>
+      <c r="B319" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>339</v>
+      </c>
+      <c r="B320" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>340</v>
+      </c>
+      <c r="B321" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>341</v>
+      </c>
+      <c r="B322" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>342</v>
+      </c>
+      <c r="B323" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>24</v>
+      </c>
+      <c r="B324" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>25</v>
+      </c>
+      <c r="B325" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>26</v>
+      </c>
+      <c r="B326" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>27</v>
+      </c>
+      <c r="B327" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>343</v>
+      </c>
+      <c r="B328" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>344</v>
+      </c>
+      <c r="B329" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>28</v>
+      </c>
+      <c r="B330" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>29</v>
+      </c>
+      <c r="B331" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>30</v>
+      </c>
+      <c r="B332" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>31</v>
+      </c>
+      <c r="B333" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>32</v>
+      </c>
+      <c r="B334" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>345</v>
+      </c>
+      <c r="B335" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>346</v>
+      </c>
+      <c r="B336" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>347</v>
+      </c>
+      <c r="B337" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>348</v>
+      </c>
+      <c r="B338" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>349</v>
+      </c>
+      <c r="B339" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>350</v>
+      </c>
+      <c r="B340" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>351</v>
+      </c>
+      <c r="B341" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>352</v>
+      </c>
+      <c r="B342" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>353</v>
+      </c>
+      <c r="B343" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>354</v>
+      </c>
+      <c r="B344" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>355</v>
+      </c>
+      <c r="B345" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>356</v>
+      </c>
+      <c r="B346" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>357</v>
+      </c>
+      <c r="B347" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>358</v>
+      </c>
+      <c r="B348" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>359</v>
+      </c>
+      <c r="B349" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>360</v>
+      </c>
+      <c r="B350" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>361</v>
+      </c>
+      <c r="B351" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>362</v>
+      </c>
+      <c r="B352" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>363</v>
+      </c>
+      <c r="B353" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>364</v>
+      </c>
+      <c r="B354" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>365</v>
+      </c>
+      <c r="B355" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>366</v>
+      </c>
+      <c r="B356" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>367</v>
+      </c>
+      <c r="B357" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>22</v>
+      </c>
+      <c r="B358" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>368</v>
+      </c>
+      <c r="B359" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>369</v>
+      </c>
+      <c r="B360" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B192"/>
   <sortState ref="A1:B8">
     <sortCondition ref="A2"/>
   </sortState>
@@ -2608,7 +4405,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2645,7 +4442,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2700,7 +4497,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
